--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Inhba-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Acvr1</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H2">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I2">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J2">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.2840475</v>
+        <v>8.424749</v>
       </c>
       <c r="N2">
-        <v>16.568095</v>
+        <v>16.849498</v>
       </c>
       <c r="O2">
-        <v>0.162064909128062</v>
+        <v>0.1980372819757593</v>
       </c>
       <c r="P2">
-        <v>0.1267883207199013</v>
+        <v>0.1585662899160533</v>
       </c>
       <c r="Q2">
-        <v>1.09076467634875</v>
+        <v>6.5263034232165</v>
       </c>
       <c r="R2">
-        <v>4.363058705395</v>
+        <v>26.105213692866</v>
       </c>
       <c r="S2">
-        <v>0.001844189171757069</v>
+        <v>0.005911221923020596</v>
       </c>
       <c r="T2">
-        <v>0.001135212680204902</v>
+        <v>0.003619316266557796</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H3">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I3">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J3">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>31.672871</v>
       </c>
       <c r="O3">
-        <v>0.2065440016062932</v>
+        <v>0.2481739331426511</v>
       </c>
       <c r="P3">
-        <v>0.2423785067907964</v>
+        <v>0.2980652388254983</v>
       </c>
       <c r="Q3">
-        <v>1.390127587001833</v>
+        <v>8.178552913184499</v>
       </c>
       <c r="R3">
-        <v>8.340765522010999</v>
+        <v>49.07131747910699</v>
       </c>
       <c r="S3">
-        <v>0.002350331193242535</v>
+        <v>0.007407752619502502</v>
       </c>
       <c r="T3">
-        <v>0.002170161673849294</v>
+        <v>0.00680341558062363</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H4">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I4">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J4">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.931556333333333</v>
+        <v>5.743874333333333</v>
       </c>
       <c r="N4">
-        <v>17.794669</v>
+        <v>17.231623</v>
       </c>
       <c r="O4">
-        <v>0.1160419635630586</v>
+        <v>0.1350190089916815</v>
       </c>
       <c r="P4">
-        <v>0.13617475034254</v>
+        <v>0.1621623699615343</v>
       </c>
       <c r="Q4">
-        <v>0.7810109881881666</v>
+        <v>4.4495410752485</v>
       </c>
       <c r="R4">
-        <v>4.686065929129</v>
+        <v>26.697246451491</v>
       </c>
       <c r="S4">
-        <v>0.001320479145200507</v>
+        <v>0.004030187235521831</v>
       </c>
       <c r="T4">
-        <v>0.001219255073612813</v>
+        <v>0.003701397716602088</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H5">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I5">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J5">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.3875515</v>
+        <v>12.9373935</v>
       </c>
       <c r="N5">
-        <v>28.775103</v>
+        <v>25.874787</v>
       </c>
       <c r="O5">
-        <v>0.2814707697442357</v>
+        <v>0.3041142524947457</v>
       </c>
       <c r="P5">
-        <v>0.2202031668645185</v>
+        <v>0.2435009622813764</v>
       </c>
       <c r="Q5">
-        <v>1.89441609978075</v>
+        <v>10.02206184261975</v>
       </c>
       <c r="R5">
-        <v>7.577664399123</v>
+        <v>40.08824737047899</v>
       </c>
       <c r="S5">
-        <v>0.003202947192709504</v>
+        <v>0.009077517215521098</v>
       </c>
       <c r="T5">
-        <v>0.001971612415295912</v>
+        <v>0.005557971963486283</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H6">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I6">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J6">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.493894666666667</v>
+        <v>0.882742</v>
       </c>
       <c r="N6">
-        <v>19.481684</v>
+        <v>2.648226</v>
       </c>
       <c r="O6">
-        <v>0.1270432658722128</v>
+        <v>0.02075027117909931</v>
       </c>
       <c r="P6">
-        <v>0.1490847317785038</v>
+        <v>0.02492177343676531</v>
       </c>
       <c r="Q6">
-        <v>0.8550543577073333</v>
+        <v>0.683823593607</v>
       </c>
       <c r="R6">
-        <v>5.130326146244</v>
+        <v>4.102941561642</v>
       </c>
       <c r="S6">
-        <v>0.001445666532790602</v>
+        <v>0.0006193755876609554</v>
       </c>
       <c r="T6">
-        <v>0.001334845961985669</v>
+        <v>0.0005688458753679953</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H7">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I7">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J7">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.460941333333333</v>
+        <v>3.994844666666667</v>
       </c>
       <c r="N7">
-        <v>16.382824</v>
+        <v>11.984534</v>
       </c>
       <c r="O7">
-        <v>0.1068350900861377</v>
+        <v>0.09390525221606305</v>
       </c>
       <c r="P7">
-        <v>0.1253705235037399</v>
+        <v>0.1127833655787726</v>
       </c>
       <c r="Q7">
-        <v>0.7190448758306667</v>
+        <v>3.094640377213</v>
       </c>
       <c r="R7">
-        <v>4.314269254984</v>
+        <v>18.567842263278</v>
       </c>
       <c r="S7">
-        <v>0.001215711145371142</v>
+        <v>0.002802981236908293</v>
       </c>
       <c r="T7">
-        <v>0.001122518282419626</v>
+        <v>0.002574309267452061</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>18.204484</v>
       </c>
       <c r="I8">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J8">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.2840475</v>
+        <v>8.424749</v>
       </c>
       <c r="N8">
-        <v>16.568095</v>
+        <v>16.849498</v>
       </c>
       <c r="O8">
-        <v>0.162064909128062</v>
+        <v>0.1980372819757593</v>
       </c>
       <c r="P8">
-        <v>0.1267883207199013</v>
+        <v>0.1585662899160533</v>
       </c>
       <c r="Q8">
-        <v>50.26893672299666</v>
+        <v>51.12273612483867</v>
       </c>
       <c r="R8">
-        <v>301.61362033798</v>
+        <v>306.736416749032</v>
       </c>
       <c r="S8">
-        <v>0.08499122752179322</v>
+        <v>0.0463045952584602</v>
       </c>
       <c r="T8">
-        <v>0.07847604844436398</v>
+        <v>0.04252698774072133</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>18.204484</v>
       </c>
       <c r="I9">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J9">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>31.672871</v>
       </c>
       <c r="O9">
-        <v>0.2065440016062932</v>
+        <v>0.2481739331426511</v>
       </c>
       <c r="P9">
-        <v>0.2423785067907964</v>
+        <v>0.2980652388254983</v>
       </c>
       <c r="Q9">
         <v>64.06536370595155</v>
@@ -1013,10 +1013,10 @@
         <v>576.5882733535641</v>
       </c>
       <c r="S9">
-        <v>0.1083172682367086</v>
+        <v>0.05802742500413253</v>
       </c>
       <c r="T9">
-        <v>0.1500209745880918</v>
+        <v>0.07994017369125468</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>18.204484</v>
       </c>
       <c r="I10">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J10">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.931556333333333</v>
+        <v>5.743874333333333</v>
       </c>
       <c r="N10">
-        <v>17.794669</v>
+        <v>17.231623</v>
       </c>
       <c r="O10">
-        <v>0.1160419635630586</v>
+        <v>0.1350190089916815</v>
       </c>
       <c r="P10">
-        <v>0.13617475034254</v>
+        <v>0.1621623699615343</v>
       </c>
       <c r="Q10">
-        <v>35.99364078842178</v>
+        <v>34.85475613305911</v>
       </c>
       <c r="R10">
-        <v>323.942767095796</v>
+        <v>313.692805197532</v>
       </c>
       <c r="S10">
-        <v>0.06085554843627669</v>
+        <v>0.03156981605273438</v>
       </c>
       <c r="T10">
-        <v>0.0842858099555454</v>
+        <v>0.04349144526879862</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>18.204484</v>
       </c>
       <c r="I11">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J11">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.3875515</v>
+        <v>12.9373935</v>
       </c>
       <c r="N11">
-        <v>28.775103</v>
+        <v>25.874787</v>
       </c>
       <c r="O11">
-        <v>0.2814707697442357</v>
+        <v>0.3041142524947457</v>
       </c>
       <c r="P11">
-        <v>0.2202031668645185</v>
+        <v>0.2435009622813764</v>
       </c>
       <c r="Q11">
-        <v>87.30598369364201</v>
+        <v>78.506190990818</v>
       </c>
       <c r="R11">
-        <v>523.835902161852</v>
+        <v>471.037145944908</v>
       </c>
       <c r="S11">
-        <v>0.1476108946765476</v>
+        <v>0.0711072543190229</v>
       </c>
       <c r="T11">
-        <v>0.1362954749486627</v>
+        <v>0.0653062037541282</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>18.204484</v>
       </c>
       <c r="I12">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J12">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.493894666666667</v>
+        <v>0.882742</v>
       </c>
       <c r="N12">
-        <v>19.481684</v>
+        <v>2.648226</v>
       </c>
       <c r="O12">
-        <v>0.1270432658722128</v>
+        <v>0.02075027117909931</v>
       </c>
       <c r="P12">
-        <v>0.1490847317785038</v>
+        <v>0.02492177343676531</v>
       </c>
       <c r="Q12">
-        <v>39.40600051900622</v>
+        <v>5.356620871709334</v>
       </c>
       <c r="R12">
-        <v>354.654004671056</v>
+        <v>48.20958784538401</v>
       </c>
       <c r="S12">
-        <v>0.06662492931350601</v>
+        <v>0.004851777901946239</v>
       </c>
       <c r="T12">
-        <v>0.09227648545966152</v>
+        <v>0.006683942431795861</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>18.204484</v>
       </c>
       <c r="I13">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J13">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.460941333333333</v>
+        <v>3.994844666666667</v>
       </c>
       <c r="N13">
-        <v>16.382824</v>
+        <v>11.984534</v>
       </c>
       <c r="O13">
-        <v>0.1068350900861377</v>
+        <v>0.09390525221606305</v>
       </c>
       <c r="P13">
-        <v>0.1253705235037399</v>
+        <v>0.1127833655787726</v>
       </c>
       <c r="Q13">
-        <v>33.13787304253511</v>
+        <v>24.24136193893955</v>
       </c>
       <c r="R13">
-        <v>298.240857382816</v>
+        <v>218.172257450456</v>
       </c>
       <c r="S13">
-        <v>0.0560272146368666</v>
+        <v>0.02195669751234349</v>
       </c>
       <c r="T13">
-        <v>0.07759849819061809</v>
+        <v>0.03024814926214763</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H14">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I14">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J14">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.2840475</v>
+        <v>8.424749</v>
       </c>
       <c r="N14">
-        <v>16.568095</v>
+        <v>16.849498</v>
       </c>
       <c r="O14">
-        <v>0.162064909128062</v>
+        <v>0.1980372819757593</v>
       </c>
       <c r="P14">
-        <v>0.1267883207199013</v>
+        <v>0.1585662899160533</v>
       </c>
       <c r="Q14">
-        <v>0.4695895165849999</v>
+        <v>6.240385695779334</v>
       </c>
       <c r="R14">
-        <v>2.81753709951</v>
+        <v>37.442314174676</v>
       </c>
       <c r="S14">
-        <v>0.0007939493462105879</v>
+        <v>0.005652250951399141</v>
       </c>
       <c r="T14">
-        <v>0.0007330875099976275</v>
+        <v>0.005191130719876312</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H15">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I15">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J15">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>31.672871</v>
       </c>
       <c r="O15">
-        <v>0.2065440016062932</v>
+        <v>0.2481739331426511</v>
       </c>
       <c r="P15">
-        <v>0.2423785067907964</v>
+        <v>0.2980652388254983</v>
       </c>
       <c r="Q15">
-        <v>0.5984694551686666</v>
+        <v>7.820250040789111</v>
       </c>
       <c r="R15">
-        <v>5.386225096517999</v>
+        <v>70.382250367102</v>
       </c>
       <c r="S15">
-        <v>0.001011850596907783</v>
+        <v>0.00708321855220028</v>
       </c>
       <c r="T15">
-        <v>0.001401427631593497</v>
+        <v>0.009758036330505487</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H16">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I16">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J16">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.931556333333333</v>
+        <v>5.743874333333333</v>
       </c>
       <c r="N16">
-        <v>17.794669</v>
+        <v>17.231623</v>
       </c>
       <c r="O16">
-        <v>0.1160419635630586</v>
+        <v>0.1350190089916815</v>
       </c>
       <c r="P16">
-        <v>0.13617475034254</v>
+        <v>0.1621623699615343</v>
       </c>
       <c r="Q16">
-        <v>0.3362362023113333</v>
+        <v>4.254606425436222</v>
       </c>
       <c r="R16">
-        <v>3.026125820802</v>
+        <v>38.291457828926</v>
       </c>
       <c r="S16">
-        <v>0.0005684848225292373</v>
+        <v>0.003853624501489652</v>
       </c>
       <c r="T16">
-        <v>0.0007873596565230927</v>
+        <v>0.005308858905388588</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H17">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I17">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J17">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.3875515</v>
+        <v>12.9373935</v>
       </c>
       <c r="N17">
-        <v>28.775103</v>
+        <v>25.874787</v>
       </c>
       <c r="O17">
-        <v>0.2814707697442357</v>
+        <v>0.3041142524947457</v>
       </c>
       <c r="P17">
-        <v>0.2202031668645185</v>
+        <v>0.2435009622813764</v>
       </c>
       <c r="Q17">
-        <v>0.815572744329</v>
+        <v>9.582994738248999</v>
       </c>
       <c r="R17">
-        <v>4.893436465974</v>
+        <v>57.49796842949399</v>
       </c>
       <c r="S17">
-        <v>0.001378913762505124</v>
+        <v>0.008679830665459597</v>
       </c>
       <c r="T17">
-        <v>0.00127321026395583</v>
+        <v>0.00797171533929119</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H18">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I18">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J18">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.493894666666667</v>
+        <v>0.882742</v>
       </c>
       <c r="N18">
-        <v>19.481684</v>
+        <v>2.648226</v>
       </c>
       <c r="O18">
-        <v>0.1270432658722128</v>
+        <v>0.02075027117909931</v>
       </c>
       <c r="P18">
-        <v>0.1490847317785038</v>
+        <v>0.02492177343676531</v>
       </c>
       <c r="Q18">
-        <v>0.3681129130746666</v>
+        <v>0.6538652427346667</v>
       </c>
       <c r="R18">
-        <v>3.313016217672</v>
+        <v>5.884787184612001</v>
       </c>
       <c r="S18">
-        <v>0.0006223797515599016</v>
+        <v>0.0005922407076270142</v>
       </c>
       <c r="T18">
-        <v>0.0008620049084774454</v>
+        <v>0.0008158870573933517</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H19">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I19">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J19">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.460941333333333</v>
+        <v>3.994844666666667</v>
       </c>
       <c r="N19">
-        <v>16.382824</v>
+        <v>11.984534</v>
       </c>
       <c r="O19">
-        <v>0.1068350900861377</v>
+        <v>0.09390525221606305</v>
       </c>
       <c r="P19">
-        <v>0.1253705235037399</v>
+        <v>0.1127833655787726</v>
       </c>
       <c r="Q19">
-        <v>0.3095589204213333</v>
+        <v>2.959064004723111</v>
       </c>
       <c r="R19">
-        <v>2.786030283791999</v>
+        <v>26.631576042508</v>
       </c>
       <c r="S19">
-        <v>0.0005233807267877661</v>
+        <v>0.002680182468089964</v>
       </c>
       <c r="T19">
-        <v>0.0007248898351252434</v>
+        <v>0.003692292946104515</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H20">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I20">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J20">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.2840475</v>
+        <v>8.424749</v>
       </c>
       <c r="N20">
-        <v>16.568095</v>
+        <v>16.849498</v>
       </c>
       <c r="O20">
-        <v>0.162064909128062</v>
+        <v>0.1980372819757593</v>
       </c>
       <c r="P20">
-        <v>0.1267883207199013</v>
+        <v>0.1585662899160533</v>
       </c>
       <c r="Q20">
-        <v>42.82598651444125</v>
+        <v>77.55548440107701</v>
       </c>
       <c r="R20">
-        <v>171.303946057765</v>
+        <v>310.221937604308</v>
       </c>
       <c r="S20">
-        <v>0.07240720414977467</v>
+        <v>0.07024614853352643</v>
       </c>
       <c r="T20">
-        <v>0.04457111968111962</v>
+        <v>0.0430102322939875</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H21">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I21">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J21">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>31.672871</v>
       </c>
       <c r="O21">
-        <v>0.2065440016062932</v>
+        <v>0.2481739331426511</v>
       </c>
       <c r="P21">
-        <v>0.2423785067907964</v>
+        <v>0.2980652388254983</v>
       </c>
       <c r="Q21">
-        <v>54.57967844501283</v>
+        <v>97.19003113239434</v>
       </c>
       <c r="R21">
-        <v>327.478070670077</v>
+        <v>583.1401867943661</v>
       </c>
       <c r="S21">
-        <v>0.09227953028623097</v>
+        <v>0.08803020722038611</v>
       </c>
       <c r="T21">
-        <v>0.085205651222163</v>
+        <v>0.08084855341847576</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H22">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I22">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J22">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.931556333333333</v>
+        <v>5.743874333333333</v>
       </c>
       <c r="N22">
-        <v>17.794669</v>
+        <v>17.231623</v>
       </c>
       <c r="O22">
-        <v>0.1160419635630586</v>
+        <v>0.1350190089916815</v>
       </c>
       <c r="P22">
-        <v>0.13617475034254</v>
+        <v>0.1621623699615343</v>
       </c>
       <c r="Q22">
-        <v>30.66432822131717</v>
+        <v>52.87622886575967</v>
       </c>
       <c r="R22">
-        <v>183.985969327903</v>
+        <v>317.257373194558</v>
       </c>
       <c r="S22">
-        <v>0.05184511681681635</v>
+        <v>0.04789282738004936</v>
       </c>
       <c r="T22">
-        <v>0.04787082170188601</v>
+        <v>0.04398564918862377</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H23">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I23">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J23">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>14.3875515</v>
+        <v>12.9373935</v>
       </c>
       <c r="N23">
-        <v>28.775103</v>
+        <v>25.874787</v>
       </c>
       <c r="O23">
-        <v>0.2814707697442357</v>
+        <v>0.3041142524947457</v>
       </c>
       <c r="P23">
-        <v>0.2202031668645185</v>
+        <v>0.2435009622813764</v>
       </c>
       <c r="Q23">
-        <v>74.37923147046526</v>
+        <v>119.0974140333255</v>
       </c>
       <c r="R23">
-        <v>297.516925881861</v>
+        <v>476.389656133302</v>
       </c>
       <c r="S23">
-        <v>0.1257552396549992</v>
+        <v>0.1078728951376094</v>
       </c>
       <c r="T23">
-        <v>0.07741014037217582</v>
+        <v>0.06604829410510912</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H24">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I24">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J24">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.493894666666667</v>
+        <v>0.882742</v>
       </c>
       <c r="N24">
-        <v>19.481684</v>
+        <v>2.648226</v>
       </c>
       <c r="O24">
-        <v>0.1270432658722128</v>
+        <v>0.02075027117909931</v>
       </c>
       <c r="P24">
-        <v>0.1490847317785038</v>
+        <v>0.02492177343676531</v>
       </c>
       <c r="Q24">
-        <v>33.57144504795134</v>
+        <v>8.126234195366001</v>
       </c>
       <c r="R24">
-        <v>201.428670287708</v>
+        <v>48.75740517219601</v>
       </c>
       <c r="S24">
-        <v>0.05676026807625937</v>
+        <v>0.007360364759683901</v>
       </c>
       <c r="T24">
-        <v>0.05240919183248004</v>
+        <v>0.006759893702885235</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H25">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I25">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J25">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.460941333333333</v>
+        <v>3.994844666666667</v>
       </c>
       <c r="N25">
-        <v>16.382824</v>
+        <v>11.984534</v>
       </c>
       <c r="O25">
-        <v>0.1068350900861377</v>
+        <v>0.09390525221606305</v>
       </c>
       <c r="P25">
-        <v>0.1253705235037399</v>
+        <v>0.1127833655787726</v>
       </c>
       <c r="Q25">
-        <v>28.23139291481467</v>
+        <v>36.77523368712734</v>
       </c>
       <c r="R25">
-        <v>169.388357488888</v>
+        <v>220.651402122764</v>
       </c>
       <c r="S25">
-        <v>0.0477316787443106</v>
+        <v>0.03330929524701953</v>
       </c>
       <c r="T25">
-        <v>0.04407270776867943</v>
+        <v>0.03059186637341903</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H26">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I26">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J26">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.2840475</v>
+        <v>8.424749</v>
       </c>
       <c r="N26">
-        <v>16.568095</v>
+        <v>16.849498</v>
       </c>
       <c r="O26">
-        <v>0.162064909128062</v>
+        <v>0.1980372819757593</v>
       </c>
       <c r="P26">
-        <v>0.1267883207199013</v>
+        <v>0.1585662899160533</v>
       </c>
       <c r="Q26">
-        <v>1.199681952204167</v>
+        <v>73.21215560262101</v>
       </c>
       <c r="R26">
-        <v>7.198091713225001</v>
+        <v>439.272933615726</v>
       </c>
       <c r="S26">
-        <v>0.002028338938526392</v>
+        <v>0.06631216343547132</v>
       </c>
       <c r="T26">
-        <v>0.001872852404215146</v>
+        <v>0.06090230452809653</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H27">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I27">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J27">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>31.672871</v>
       </c>
       <c r="O27">
-        <v>0.2065440016062932</v>
+        <v>0.2481739331426511</v>
       </c>
       <c r="P27">
-        <v>0.2423785067907964</v>
+        <v>0.2980652388254983</v>
       </c>
       <c r="Q27">
-        <v>1.528937463367222</v>
+        <v>91.74711159678634</v>
       </c>
       <c r="R27">
-        <v>13.760437170305</v>
+        <v>825.7240043710771</v>
       </c>
       <c r="S27">
-        <v>0.002585021293203326</v>
+        <v>0.08310026400480298</v>
       </c>
       <c r="T27">
-        <v>0.003580291675098807</v>
+        <v>0.114481205014008</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H28">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I28">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J28">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.931556333333333</v>
+        <v>5.743874333333333</v>
       </c>
       <c r="N28">
-        <v>17.794669</v>
+        <v>17.231623</v>
       </c>
       <c r="O28">
-        <v>0.1160419635630586</v>
+        <v>0.1350190089916815</v>
       </c>
       <c r="P28">
-        <v>0.13617475034254</v>
+        <v>0.1621623699615343</v>
       </c>
       <c r="Q28">
-        <v>0.8589981022661112</v>
+        <v>49.91500891645567</v>
       </c>
       <c r="R28">
-        <v>7.730982920395</v>
+        <v>449.235080248101</v>
       </c>
       <c r="S28">
-        <v>0.001452334342235825</v>
+        <v>0.04521069215769026</v>
       </c>
       <c r="T28">
-        <v>0.002011503954972658</v>
+        <v>0.06228349066894172</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H29">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I29">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J29">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>14.3875515</v>
+        <v>12.9373935</v>
       </c>
       <c r="N29">
-        <v>28.775103</v>
+        <v>25.874787</v>
       </c>
       <c r="O29">
-        <v>0.2814707697442357</v>
+        <v>0.3041142524947457</v>
       </c>
       <c r="P29">
-        <v>0.2202031668645185</v>
+        <v>0.2435009622813764</v>
       </c>
       <c r="Q29">
-        <v>2.0835812289775</v>
+        <v>112.4276184387615</v>
       </c>
       <c r="R29">
-        <v>12.501487373865</v>
+        <v>674.565710632569</v>
       </c>
       <c r="S29">
-        <v>0.003522774457474296</v>
+        <v>0.1018317046835466</v>
       </c>
       <c r="T29">
-        <v>0.003252728864428195</v>
+        <v>0.09352410128026561</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H30">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I30">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J30">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.493894666666667</v>
+        <v>0.882742</v>
       </c>
       <c r="N30">
-        <v>19.481684</v>
+        <v>2.648226</v>
       </c>
       <c r="O30">
-        <v>0.1270432658722128</v>
+        <v>0.02075027117909931</v>
       </c>
       <c r="P30">
-        <v>0.1490847317785038</v>
+        <v>0.02492177343676531</v>
       </c>
       <c r="Q30">
-        <v>0.940435002468889</v>
+        <v>7.671141853718001</v>
       </c>
       <c r="R30">
-        <v>8.463915022220002</v>
+        <v>69.04027668346201</v>
       </c>
       <c r="S30">
-        <v>0.001590022198096868</v>
+        <v>0.006948163295470859</v>
       </c>
       <c r="T30">
-        <v>0.002202203615899097</v>
+        <v>0.009571980501212734</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>8.690129000000001</v>
+      </c>
+      <c r="H31">
+        <v>26.070387</v>
+      </c>
+      <c r="I31">
+        <v>0.3348468670842908</v>
+      </c>
+      <c r="J31">
+        <v>0.3840810336190553</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.994844666666667</v>
+      </c>
+      <c r="N31">
+        <v>11.984534</v>
+      </c>
+      <c r="O31">
+        <v>0.09390525221606305</v>
+      </c>
+      <c r="P31">
+        <v>0.1127833655787726</v>
+      </c>
+      <c r="Q31">
+        <v>34.71571548829534</v>
+      </c>
+      <c r="R31">
+        <v>312.441439394658</v>
+      </c>
+      <c r="S31">
+        <v>0.03144387950730887</v>
+      </c>
+      <c r="T31">
+        <v>0.04331795162653076</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H32">
+        <v>1.419613</v>
+      </c>
+      <c r="I32">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J32">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>8.424749</v>
+      </c>
+      <c r="N32">
+        <v>16.849498</v>
+      </c>
+      <c r="O32">
+        <v>0.1980372819757593</v>
+      </c>
+      <c r="P32">
+        <v>0.1585662899160533</v>
+      </c>
+      <c r="Q32">
+        <v>3.986627734045667</v>
+      </c>
+      <c r="R32">
+        <v>23.919766404274</v>
+      </c>
+      <c r="S32">
+        <v>0.003610901873881647</v>
+      </c>
+      <c r="T32">
+        <v>0.003316318366813838</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H33">
+        <v>1.419613</v>
+      </c>
+      <c r="I33">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J33">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>10.55762366666667</v>
+      </c>
+      <c r="N33">
+        <v>31.672871</v>
+      </c>
+      <c r="O33">
+        <v>0.2481739331426511</v>
+      </c>
+      <c r="P33">
+        <v>0.2980652388254983</v>
+      </c>
+      <c r="Q33">
+        <v>4.995913268769222</v>
+      </c>
+      <c r="R33">
+        <v>44.963219418923</v>
+      </c>
+      <c r="S33">
+        <v>0.004525065741626711</v>
+      </c>
+      <c r="T33">
+        <v>0.006233854790630875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H34">
+        <v>1.419613</v>
+      </c>
+      <c r="I34">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J34">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>5.743874333333333</v>
+      </c>
+      <c r="N34">
+        <v>17.231623</v>
+      </c>
+      <c r="O34">
+        <v>0.1350190089916815</v>
+      </c>
+      <c r="P34">
+        <v>0.1621623699615343</v>
+      </c>
+      <c r="Q34">
+        <v>2.718026224655445</v>
+      </c>
+      <c r="R34">
+        <v>24.462236021899</v>
+      </c>
+      <c r="S34">
+        <v>0.002461861664196053</v>
+      </c>
+      <c r="T34">
+        <v>0.003391528213179511</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H35">
+        <v>1.419613</v>
+      </c>
+      <c r="I35">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J35">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>12.9373935</v>
+      </c>
+      <c r="N35">
+        <v>25.874787</v>
+      </c>
+      <c r="O35">
+        <v>0.3041142524947457</v>
+      </c>
+      <c r="P35">
+        <v>0.2435009622813764</v>
+      </c>
+      <c r="Q35">
+        <v>6.1220306662385</v>
+      </c>
+      <c r="R35">
+        <v>36.73218399743099</v>
+      </c>
+      <c r="S35">
+        <v>0.005545050473586126</v>
+      </c>
+      <c r="T35">
+        <v>0.005092675839095972</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.1448183333333334</v>
-      </c>
-      <c r="H31">
-        <v>0.434455</v>
-      </c>
-      <c r="I31">
-        <v>0.01251559606233833</v>
-      </c>
-      <c r="J31">
-        <v>0.01477148994151142</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>5.460941333333333</v>
-      </c>
-      <c r="N31">
-        <v>16.382824</v>
-      </c>
-      <c r="O31">
-        <v>0.1068350900861377</v>
-      </c>
-      <c r="P31">
-        <v>0.1253705235037399</v>
-      </c>
-      <c r="Q31">
-        <v>0.7908444223244445</v>
-      </c>
-      <c r="R31">
-        <v>7.11759980092</v>
-      </c>
-      <c r="S31">
-        <v>0.001337104832801626</v>
-      </c>
-      <c r="T31">
-        <v>0.001851909426897515</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H36">
+        <v>1.419613</v>
+      </c>
+      <c r="I36">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J36">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.882742</v>
+      </c>
+      <c r="N36">
+        <v>2.648226</v>
+      </c>
+      <c r="O36">
+        <v>0.02075027117909931</v>
+      </c>
+      <c r="P36">
+        <v>0.02492177343676531</v>
+      </c>
+      <c r="Q36">
+        <v>0.4177173396153334</v>
+      </c>
+      <c r="R36">
+        <v>3.759456056538</v>
+      </c>
+      <c r="S36">
+        <v>0.0003783489267103427</v>
+      </c>
+      <c r="T36">
+        <v>0.0005212238681101325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H37">
+        <v>1.419613</v>
+      </c>
+      <c r="I37">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J37">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.994844666666667</v>
+      </c>
+      <c r="N37">
+        <v>11.984534</v>
+      </c>
+      <c r="O37">
+        <v>0.09390525221606305</v>
+      </c>
+      <c r="P37">
+        <v>0.1127833655787726</v>
+      </c>
+      <c r="Q37">
+        <v>1.890377807260222</v>
+      </c>
+      <c r="R37">
+        <v>17.013400265342</v>
+      </c>
+      <c r="S37">
+        <v>0.001712216244392892</v>
+      </c>
+      <c r="T37">
+        <v>0.002358796103118615</v>
       </c>
     </row>
   </sheetData>
